--- a/biology/Zoologie/Agrobate_roux/Agrobate_roux.xlsx
+++ b/biology/Zoologie/Agrobate_roux/Agrobate_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agrobate roux (Cercotrichas galactotes) est une espèce de petits passereaux dont la silhouette et l'attitude rappellent celles du Rossignol philomèle. C'est un oiseau rarement observé en France (régions méditerranéennes).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 15 cm de longueur pour une envergure de 22 à 27 cm et une masse de 20 à 25 g.
 </t>
@@ -542,14 +556,12 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cet oiseau vit essentiellement en petits groupes. 
-Reproduction
-Après l'accouplement, la femelle pond et couve seule quatre ou cinq œufs, le mâle la ravitaille. L'incubation dure deux semaines. Les oisillons prennent leur envol au bout de 14 jours environ.
-Régime alimentaire
-Cet oiseau se nourrit de petits invertébrés, tel des insectes, araignées ou vers de terre, qu'il capture au sol mais aussi parfois en vol.
-Migration</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit essentiellement en petits groupes. 
+</t>
         </is>
       </c>
     </row>
@@ -574,10 +586,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l'accouplement, la femelle pond et couve seule quatre ou cinq œufs, le mâle la ravitaille. L'incubation dure deux semaines. Les oisillons prennent leur envol au bout de 14 jours environ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agrobate_roux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrobate_roux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se nourrit de petits invertébrés, tel des insectes, araignées ou vers de terre, qu'il capture au sol mais aussi parfois en vol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrobate_roux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrobate_roux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En été, son aire de nidification s'étend du Pakistan au Moyen-Orient, de l'Arménie à la Turquie et au sud des Balkans d'une part, de l'Égypte à l'Afrique du Nord et au centre et au sud-est de l'Espagne, d'autre part.
 Son aire d'hivernage s'étend de l'est de l'Afrique subsahélienne à l'Inde.
@@ -585,35 +673,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Agrobate_roux</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agrobate_roux</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) déplace cette espèce, alors placée dans le genre Erythropygia, dans le genre Cercotrichas.
-Sous-espèces et distribution
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des 5 sous-espèces suivantes (ordre phylogénique) :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) déplace cette espèce, alors placée dans le genre Erythropygia, dans le genre Cercotrichas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrobate_roux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrobate_roux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-espèces et distribution</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des 5 sous-espèces suivantes (ordre phylogénique) :
 C. g. galactotes (Temminck, 1820) du sud-ouest de l'Europe, d'Afrique du Nord, du Sinaï, d'Israël, de la Jordanie et du sud de la Syrie ;
 C. g. syriacus (Hemprich et Ehrenberg, 1833) du sud-est de l'Europe, de l'ouest et du centre de la Turquie, du centre de la Syrie et du Liban ;
 C. g. familiaris (Ménétriés, 1832) du Caucase, d'Irak, d'Iran, d'Afghanistan, du Kazakhstan, du sud-est de la Turquie et du nord de la Syrie ;
